--- a/data/flight_per_market_segment.xlsx
+++ b/data/flight_per_market_segment.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA246ADA-4D70-462F-9D4E-C2FB6A3540BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B8BF9-8522-4516-8937-528BE499A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flight_per_market_segment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,21 +38,12 @@
     <t>Mainline</t>
   </si>
   <si>
-    <t>Lowcost</t>
-  </si>
-  <si>
-    <t>Regional Aircraft</t>
-  </si>
-  <si>
     <t>Business Aviation</t>
   </si>
   <si>
     <t>All-Cargo</t>
   </si>
   <si>
-    <t>Other Types</t>
-  </si>
-  <si>
     <t>Charter</t>
   </si>
   <si>
@@ -52,9 +56,6 @@
     <t>share_of_total_2019</t>
   </si>
   <si>
-    <t>share_of_total_2020</t>
-  </si>
-  <si>
     <t>share_of_total_2021</t>
   </si>
   <si>
@@ -64,16 +65,28 @@
     <t>y2019</t>
   </si>
   <si>
-    <t>y2020</t>
-  </si>
-  <si>
     <t>y2021</t>
+  </si>
+  <si>
+    <t>y2022</t>
+  </si>
+  <si>
+    <t>share_of_total_2022</t>
+  </si>
+  <si>
+    <t>Low-cost</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -550,11 +563,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -594,6 +609,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -612,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -652,7 +668,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -758,7 +774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,55 +916,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -956,185 +972,185 @@
         <v>3991685</v>
       </c>
       <c r="C2">
-        <v>0.36008806999999998</v>
+        <v>0.36</v>
       </c>
       <c r="D2">
-        <v>1479557</v>
+        <v>1816909</v>
       </c>
       <c r="E2">
-        <v>0.29715481500000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F2">
-        <v>1816909</v>
+        <v>2981880</v>
       </c>
       <c r="G2">
-        <v>0.291603485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>3493913</v>
       </c>
       <c r="C3">
-        <v>0.31518428599999998</v>
+        <v>0.32</v>
       </c>
       <c r="D3">
-        <v>1243422</v>
+        <v>1610239</v>
       </c>
       <c r="E3">
-        <v>0.24972936800000001</v>
+        <v>0.26</v>
       </c>
       <c r="F3">
-        <v>1610239</v>
+        <v>2984376</v>
       </c>
       <c r="G3">
-        <v>0.25843413399999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1643854</v>
       </c>
       <c r="C4">
-        <v>0.14829131400000001</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>746765</v>
+        <v>861587</v>
       </c>
       <c r="E4">
-        <v>0.149980579</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F4">
-        <v>861587</v>
+        <v>1219685</v>
       </c>
       <c r="G4">
-        <v>0.13827977699999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>683473</v>
       </c>
       <c r="C5">
-        <v>6.1655784999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D5">
-        <v>513628</v>
+        <v>709398</v>
       </c>
       <c r="E5">
-        <v>0.10315725100000001</v>
+        <v>0.11</v>
       </c>
       <c r="F5">
-        <v>709398</v>
+        <v>791909</v>
       </c>
       <c r="G5">
-        <v>0.113854315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>368362</v>
       </c>
       <c r="C6">
-        <v>3.3229767E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D6">
-        <v>389914</v>
+        <v>419824</v>
       </c>
       <c r="E6">
-        <v>7.8310482000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6">
-        <v>419824</v>
+        <v>389611</v>
       </c>
       <c r="G6">
-        <v>6.7379347000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>372796</v>
       </c>
       <c r="C7">
-        <v>3.3629755999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D7">
-        <v>309283</v>
+        <v>363712</v>
       </c>
       <c r="E7">
-        <v>6.2116520000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F7">
-        <v>363712</v>
+        <v>389396</v>
       </c>
       <c r="G7">
-        <v>5.8373691999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>382218</v>
       </c>
       <c r="C8">
-        <v>3.4479709999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D8">
-        <v>162798</v>
+        <v>303384</v>
       </c>
       <c r="E8">
-        <v>3.2696415E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>303384</v>
+        <v>324824</v>
       </c>
       <c r="G8">
-        <v>4.8691393999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>149001</v>
       </c>
       <c r="C9">
-        <v>1.3441312E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
-        <v>133711</v>
+        <v>145699</v>
       </c>
       <c r="E9">
-        <v>2.6854570000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
-        <v>145699</v>
+        <v>156012</v>
       </c>
       <c r="G9">
-        <v>2.3383854999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>11085302</v>
@@ -1143,17 +1159,33 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4979078</v>
+        <v>6230752</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>6230752</v>
+        <v>9237693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/flight_per_market_segment.xlsx
+++ b/data/flight_per_market_segment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B8BF9-8522-4516-8937-528BE499A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F616D57-B495-4D67-90D5-8149FF43B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flight_per_market_segment" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -563,13 +563,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -609,7 +607,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -924,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,22 +1168,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/flight_per_market_segment.xlsx
+++ b/data/flight_per_market_segment.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA246ADA-4D70-462F-9D4E-C2FB6A3540BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F616D57-B495-4D67-90D5-8149FF43B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flight_per_market_segment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,21 +38,12 @@
     <t>Mainline</t>
   </si>
   <si>
-    <t>Lowcost</t>
-  </si>
-  <si>
-    <t>Regional Aircraft</t>
-  </si>
-  <si>
     <t>Business Aviation</t>
   </si>
   <si>
     <t>All-Cargo</t>
   </si>
   <si>
-    <t>Other Types</t>
-  </si>
-  <si>
     <t>Charter</t>
   </si>
   <si>
@@ -52,9 +56,6 @@
     <t>share_of_total_2019</t>
   </si>
   <si>
-    <t>share_of_total_2020</t>
-  </si>
-  <si>
     <t>share_of_total_2021</t>
   </si>
   <si>
@@ -64,16 +65,28 @@
     <t>y2019</t>
   </si>
   <si>
-    <t>y2020</t>
-  </si>
-  <si>
     <t>y2021</t>
+  </si>
+  <si>
+    <t>y2022</t>
+  </si>
+  <si>
+    <t>share_of_total_2022</t>
+  </si>
+  <si>
+    <t>Low-cost</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -652,7 +665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -758,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,55 +913,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -956,185 +969,185 @@
         <v>3991685</v>
       </c>
       <c r="C2">
-        <v>0.36008806999999998</v>
+        <v>0.36</v>
       </c>
       <c r="D2">
-        <v>1479557</v>
+        <v>1816909</v>
       </c>
       <c r="E2">
-        <v>0.29715481500000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F2">
-        <v>1816909</v>
+        <v>2981880</v>
       </c>
       <c r="G2">
-        <v>0.291603485</v>
+        <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>3493913</v>
       </c>
       <c r="C3">
-        <v>0.31518428599999998</v>
+        <v>0.32</v>
       </c>
       <c r="D3">
-        <v>1243422</v>
+        <v>1610239</v>
       </c>
       <c r="E3">
-        <v>0.24972936800000001</v>
+        <v>0.26</v>
       </c>
       <c r="F3">
-        <v>1610239</v>
+        <v>2984376</v>
       </c>
       <c r="G3">
-        <v>0.25843413399999998</v>
+        <v>0.32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1643854</v>
       </c>
       <c r="C4">
-        <v>0.14829131400000001</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>746765</v>
+        <v>861587</v>
       </c>
       <c r="E4">
-        <v>0.149980579</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F4">
-        <v>861587</v>
+        <v>1219685</v>
       </c>
       <c r="G4">
-        <v>0.13827977699999999</v>
+        <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>683473</v>
       </c>
       <c r="C5">
-        <v>6.1655784999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D5">
-        <v>513628</v>
+        <v>709398</v>
       </c>
       <c r="E5">
-        <v>0.10315725100000001</v>
+        <v>0.11</v>
       </c>
       <c r="F5">
-        <v>709398</v>
+        <v>791909</v>
       </c>
       <c r="G5">
-        <v>0.113854315</v>
+        <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>368362</v>
       </c>
       <c r="C6">
-        <v>3.3229767E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D6">
-        <v>389914</v>
+        <v>419824</v>
       </c>
       <c r="E6">
-        <v>7.8310482000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6">
-        <v>419824</v>
+        <v>389611</v>
       </c>
       <c r="G6">
-        <v>6.7379347000000006E-2</v>
+        <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>372796</v>
       </c>
       <c r="C7">
-        <v>3.3629755999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D7">
-        <v>309283</v>
+        <v>363712</v>
       </c>
       <c r="E7">
-        <v>6.2116520000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F7">
-        <v>363712</v>
+        <v>389396</v>
       </c>
       <c r="G7">
-        <v>5.8373691999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>382218</v>
       </c>
       <c r="C8">
-        <v>3.4479709999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D8">
-        <v>162798</v>
+        <v>303384</v>
       </c>
       <c r="E8">
-        <v>3.2696415E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>303384</v>
+        <v>324824</v>
       </c>
       <c r="G8">
-        <v>4.8691393999999999E-2</v>
+        <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>149001</v>
       </c>
       <c r="C9">
-        <v>1.3441312E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
-        <v>133711</v>
+        <v>145699</v>
       </c>
       <c r="E9">
-        <v>2.6854570000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
-        <v>145699</v>
+        <v>156012</v>
       </c>
       <c r="G9">
-        <v>2.3383854999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>11085302</v>
@@ -1143,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4979078</v>
+        <v>6230752</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>6230752</v>
+        <v>9237693</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/data/flight_per_market_segment.xlsx
+++ b/data/flight_per_market_segment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F616D57-B495-4D67-90D5-8149FF43B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAEBC81-7670-4C14-8078-FC0D0F188464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flight_per_market_segment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Mainline</t>
   </si>
@@ -56,24 +56,12 @@
     <t>share_of_total_2019</t>
   </si>
   <si>
-    <t>share_of_total_2021</t>
-  </si>
-  <si>
     <t>segment</t>
   </si>
   <si>
     <t>y2019</t>
   </si>
   <si>
-    <t>y2021</t>
-  </si>
-  <si>
-    <t>y2022</t>
-  </si>
-  <si>
-    <t>share_of_total_2022</t>
-  </si>
-  <si>
     <t>Low-cost</t>
   </si>
   <si>
@@ -81,12 +69,22 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>y2024</t>
+  </si>
+  <si>
+    <t>share_of_total_2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +399,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -520,7 +524,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -563,11 +567,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -595,6 +603,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -921,254 +930,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>3991685</v>
       </c>
       <c r="C2">
         <v>0.36</v>
       </c>
-      <c r="D2">
-        <v>1816909</v>
-      </c>
-      <c r="E2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F2">
-        <v>2981880</v>
-      </c>
-      <c r="G2">
-        <v>0.32</v>
+      <c r="D2" s="2">
+        <v>3782161</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/$D$10</f>
+        <v>0.40942700737077969</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
         <v>3493913</v>
       </c>
       <c r="C3">
         <v>0.32</v>
       </c>
-      <c r="D3">
-        <v>1610239</v>
-      </c>
-      <c r="E3">
-        <v>0.26</v>
-      </c>
-      <c r="F3">
-        <v>2984376</v>
-      </c>
-      <c r="G3">
-        <v>0.32</v>
+      <c r="D3" s="2">
+        <v>3601662</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/$D$10</f>
+        <v>0.38988760505463865</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>1643854</v>
       </c>
       <c r="C4">
         <v>0.15</v>
       </c>
-      <c r="D4">
-        <v>861587</v>
-      </c>
-      <c r="E4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1219685</v>
-      </c>
-      <c r="G4">
-        <v>0.13</v>
+      <c r="D4" s="2">
+        <v>1340478</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="0">D4/$D$10</f>
+        <v>0.14510960691159577</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>683473</v>
       </c>
       <c r="C5">
         <v>0.06</v>
       </c>
-      <c r="D5">
-        <v>709398</v>
-      </c>
-      <c r="E5">
-        <v>0.11</v>
-      </c>
-      <c r="F5">
-        <v>791909</v>
-      </c>
-      <c r="G5">
-        <v>0.09</v>
+      <c r="D5" s="2">
+        <v>751773</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1381033121581334E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>368362</v>
       </c>
       <c r="C6">
         <v>0.03</v>
       </c>
-      <c r="D6">
-        <v>419824</v>
-      </c>
-      <c r="E6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F6">
-        <v>389611</v>
-      </c>
-      <c r="G6">
-        <v>0.04</v>
+      <c r="D6" s="2">
+        <v>360419</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9016126645473062E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
         <v>372796</v>
       </c>
       <c r="C7">
         <v>0.03</v>
       </c>
-      <c r="D7">
-        <v>363712</v>
-      </c>
-      <c r="E7">
-        <v>0.06</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="3">
         <v>389396</v>
       </c>
-      <c r="G7">
-        <v>0.04</v>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2152948793600306E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>382218</v>
       </c>
       <c r="C8">
         <v>0.04</v>
       </c>
-      <c r="D8">
-        <v>303384</v>
-      </c>
-      <c r="E8">
-        <v>0.05</v>
-      </c>
-      <c r="F8">
-        <v>324824</v>
-      </c>
-      <c r="G8">
-        <v>0.04</v>
+      <c r="D8" s="2">
+        <v>320093</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4650751004606885E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>149001</v>
       </c>
       <c r="C9">
         <v>0.01</v>
       </c>
-      <c r="D9">
-        <v>145699</v>
-      </c>
-      <c r="E9">
-        <v>0.02</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="3">
         <v>156012</v>
       </c>
-      <c r="G9">
-        <v>0.02</v>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6888632259158213E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>11085302</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>6230752</v>
+      <c r="D10" s="2">
+        <v>9237693</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>9237693</v>
-      </c>
-      <c r="G10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>